--- a/Examples/Screener.xlsx
+++ b/Examples/Screener.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriya\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\XLQuote.com\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5646430-1934-4921-8AAF-9E402CE0611A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E277ED-242D-4C3A-9F13-6AF520B388D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="29000" windowHeight="15680" xr2:uid="{B3C147E0-C30A-421D-8B05-2934A5BA194A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{B3C147E0-C30A-421D-8B05-2934A5BA194A}"/>
   </bookViews>
   <sheets>
     <sheet name="Screener" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,45 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
   <si>
     <t>Market:</t>
   </si>
@@ -415,6 +448,63 @@
   </si>
   <si>
     <t>InMonthRange</t>
+  </si>
+  <si>
+    <t>ADX</t>
+  </si>
+  <si>
+    <t>EMA10</t>
+  </si>
+  <si>
+    <t>EMA20</t>
+  </si>
+  <si>
+    <t>EMA30</t>
+  </si>
+  <si>
+    <t>EMA50</t>
+  </si>
+  <si>
+    <t>EMA100</t>
+  </si>
+  <si>
+    <t>EMA200</t>
+  </si>
+  <si>
+    <t>Mom</t>
+  </si>
+  <si>
+    <t>RSI</t>
+  </si>
+  <si>
+    <t>SMA10</t>
+  </si>
+  <si>
+    <t>SMA20</t>
+  </si>
+  <si>
+    <t>SMA30</t>
+  </si>
+  <si>
+    <t>SMA50</t>
+  </si>
+  <si>
+    <t>SMA100</t>
+  </si>
+  <si>
+    <t>Stoch.K</t>
+  </si>
+  <si>
+    <t>Stoch.D</t>
+  </si>
+  <si>
+    <t>StochRSI.K</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>VWMA</t>
   </si>
 </sst>
 </file>
@@ -815,29 +905,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C0E38B-A78E-4706-99EE-C88AD1DC827E}">
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.6328125" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.36328125" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.59765625" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -878,7 +968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -886,7 +976,7 @@
         <f>J1</f>
         <v>MarketCap</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:N31">_xll.xlquoteScreener(B1,E1:N1,A6:A9,B2,B3,B4)</f>
         <v>Apple Inc.</v>
       </c>
@@ -918,7 +1008,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -956,7 +1046,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -994,7 +1084,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1029,7 +1119,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1064,7 +1154,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1099,7 +1189,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1134,7 +1224,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1169,7 +1259,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="E10" t="str">
         <v>Broadcom Inc.</v>
@@ -1202,7 +1292,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="E11" t="str">
         <v>Eli Lilly and Company</v>
@@ -1235,7 +1325,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="E12" t="str">
         <v>Walmart Inc.</v>
@@ -1268,7 +1358,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="E13" t="str">
         <v>Exxon Mobil Corporation</v>
@@ -1301,7 +1391,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="E14" t="str">
         <v>Netflix, Inc.</v>
@@ -1334,7 +1424,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="E15" t="str">
         <v>Costco Wholesale Corporation</v>
@@ -1367,7 +1457,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="E16" t="str">
         <v>Oracle Corporation</v>
@@ -1400,7 +1490,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="E17" t="str">
         <v>UnitedHealth Group Incorporated</v>
@@ -1433,7 +1523,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="E18" t="str">
         <v>Procter &amp; Gamble Company (The)</v>
@@ -1466,7 +1556,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="E19" t="str">
         <v>Johnson &amp; Johnson</v>
@@ -1499,7 +1589,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="E20" t="str">
         <v>Home Depot, Inc. (The)</v>
@@ -1532,7 +1622,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="E21" t="str">
         <v>AbbVie Inc.</v>
@@ -1565,7 +1655,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="E22" t="str">
         <v>Coca-Cola Company (The)</v>
@@ -1598,7 +1688,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="E23" t="str">
         <v>Philip Morris International Inc</v>
@@ -1631,7 +1721,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="E24" t="str">
         <v>Palantir Technologies Inc.</v>
@@ -1664,7 +1754,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="E25" t="str">
         <v>T-Mobile US, Inc.</v>
@@ -1697,7 +1787,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="E26" t="str">
         <v>Salesforce, Inc.</v>
@@ -1730,7 +1820,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="E27" t="str">
         <v>Chevron Corporation</v>
@@ -1763,7 +1853,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="E28" t="str">
         <v>McDonald's Corporation</v>
@@ -1796,7 +1886,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="E29" t="str">
         <v>Cisco Systems, Inc.</v>
@@ -1829,7 +1919,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="E30" t="str">
         <v>Abbott Laboratories</v>
@@ -1862,7 +1952,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="E31" t="str">
         <v>International Business Machines Corporation</v>
@@ -1895,7 +1985,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1903,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -1911,7 +2001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -1919,7 +2009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -1927,7 +2017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -1935,7 +2025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -1943,7 +2033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -1951,7 +2041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -1959,7 +2049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>110</v>
       </c>
@@ -1967,7 +2057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -1975,7 +2065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -1983,7 +2073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>113</v>
       </c>
@@ -1991,7 +2081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -1999,7 +2089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -2007,7 +2097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -2015,7 +2105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>117</v>
       </c>
@@ -2023,7 +2113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>118</v>
       </c>
@@ -2031,7 +2121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>119</v>
       </c>
@@ -2039,7 +2129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>120</v>
       </c>
@@ -2047,7 +2137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -2055,7 +2145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>122</v>
       </c>
@@ -2063,7 +2153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -2071,7 +2161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -2079,7 +2169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -2087,7 +2177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -2095,7 +2185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -2103,7 +2193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>128</v>
       </c>
@@ -2111,323 +2201,423 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B84" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" t="s">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" t="s">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B92" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B93" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B94" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B95" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B99" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B101" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B109" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B110" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" t="s">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B111" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" t="s">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B112" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" t="s">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B113" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" t="s">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B114" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" t="s">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B115" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" t="s">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B116" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" t="s">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B117" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" t="s">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B118" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" t="s">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B119" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" t="s">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B120" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101" t="s">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B121" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" t="s">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B122" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103" t="s">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B123" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104" t="s">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B124" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" t="s">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B125" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" t="s">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B126" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B107" t="s">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B127" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108" t="s">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B128" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" t="s">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B129" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B110" t="s">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B130" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111" t="s">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B131" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B112" t="s">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B132" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B113" t="s">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B133" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" t="s">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B134" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B115" t="s">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B135" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B116" t="s">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B136" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B117" t="s">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B137" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B118" t="s">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B138" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B119" t="s">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B139" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B120" t="s">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B140" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B121" t="s">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B141" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B122" t="s">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B142" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B123" t="s">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B143" t="s">
         <v>102</v>
       </c>
     </row>
